--- a/vypocet Cd.xlsx
+++ b/vypocet Cd.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="7704" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="7704" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
     <sheet name="B1" sheetId="2" r:id="rId2"/>
     <sheet name="B6" sheetId="3" r:id="rId3"/>
+    <sheet name="List2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>b6</t>
   </si>
@@ -95,11 +96,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -896,11 +900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555395432"/>
-        <c:axId val="555394256"/>
+        <c:axId val="113438640"/>
+        <c:axId val="113437856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555395432"/>
+        <c:axId val="113438640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,12 +961,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555394256"/>
+        <c:crossAx val="113437856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555394256"/>
+        <c:axId val="113437856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1023,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555395432"/>
+        <c:crossAx val="113438640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1792,11 +1796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477735696"/>
-        <c:axId val="477729816"/>
+        <c:axId val="113436288"/>
+        <c:axId val="113439032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477735696"/>
+        <c:axId val="113436288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,12 +1857,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477729816"/>
+        <c:crossAx val="113439032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477729816"/>
+        <c:axId val="113439032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1916,7 +1920,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477735696"/>
+        <c:crossAx val="113436288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2803,11 +2807,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="481926120"/>
-        <c:axId val="481925728"/>
+        <c:axId val="113437464"/>
+        <c:axId val="164126824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="481926120"/>
+        <c:axId val="113437464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2865,12 +2869,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481925728"/>
+        <c:crossAx val="164126824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481925728"/>
+        <c:axId val="164126824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2928,7 +2932,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481926120"/>
+        <c:crossAx val="113437464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5473,7 +5477,7 @@
   <dimension ref="A1:J1952"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:I20"/>
+      <selection activeCell="G1" activeCellId="1" sqref="A1:A100 G1:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5518,7 +5522,7 @@
         <v>-1.3288271572849168</v>
       </c>
       <c r="F2">
-        <f>LOG10(B2) - LOG10(B1)</f>
+        <f>LOG10(B2) -LOG10(B1)</f>
         <v>0.366396573186482</v>
       </c>
       <c r="G2">
@@ -5550,7 +5554,7 @@
         <v>-1.6615435063953952</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">LOG10(B3) - LOG10(B2)</f>
+        <f t="shared" ref="F3:F66" si="1">LOG10(B3) -LOG10(B2)</f>
         <v>0.1020508942982663</v>
       </c>
       <c r="G3">
@@ -5578,7 +5582,7 @@
         <v>8.09E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E3:E66" si="5">LOG10(D4)</f>
+        <f t="shared" ref="E4:E66" si="5">LOG10(D4)</f>
         <v>-1.0920514783877278</v>
       </c>
       <c r="F4">
@@ -7438,7 +7442,7 @@
         <v>-1.9706162223147932</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F100" si="8">LOG10(B67) - LOG10(B66)</f>
+        <f t="shared" ref="F67:F100" si="8">LOG10(B67) -LOG10(B66)</f>
         <v>8.9649800933544466E-4</v>
       </c>
       <c r="G67">
@@ -8254,7 +8258,7 @@
         <v>-1.6073030467403313</v>
       </c>
       <c r="F101">
-        <f t="shared" ref="F101:F164" si="10">LOG10(B101) - LOG10(B100)</f>
+        <f t="shared" ref="F101:F164" si="10">LOG10(B101) -LOG10(B100)</f>
         <v>1.802584310584221E-3</v>
       </c>
       <c r="G101">
@@ -9790,7 +9794,7 @@
         <v>-2.3767507096021014</v>
       </c>
       <c r="F165">
-        <f t="shared" ref="F165:F228" si="14">LOG10(B165) - LOG10(B164)</f>
+        <f t="shared" ref="F165:F228" si="14">LOG10(B165) -LOG10(B164)</f>
         <v>2.8453006524065128E-4</v>
       </c>
       <c r="G165">
@@ -11326,7 +11330,7 @@
         <v>-2.3665315444204387</v>
       </c>
       <c r="F229">
-        <f t="shared" ref="F229:F292" si="18">LOG10(B229) - LOG10(B228)</f>
+        <f t="shared" ref="F229:F292" si="18">LOG10(B229) -LOG10(B228)</f>
         <v>2.8466823762363092E-4</v>
       </c>
       <c r="G229">
@@ -12862,7 +12866,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F293">
-        <f t="shared" ref="F293:F356" si="22">LOG10(B293) - LOG10(B292)</f>
+        <f t="shared" ref="F293:F356" si="22">LOG10(B293) -LOG10(B292)</f>
         <v>-9.8124990583647875E-4</v>
       </c>
       <c r="G293">
@@ -14398,7 +14402,7 @@
         <v>-3.1549019599856534</v>
       </c>
       <c r="F357">
-        <f t="shared" ref="F357:F420" si="26">LOG10(B357) - LOG10(B356)</f>
+        <f t="shared" ref="F357:F420" si="26">LOG10(B357) -LOG10(B356)</f>
         <v>4.541302425353777E-5</v>
       </c>
       <c r="G357">
@@ -15934,7 +15938,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F421">
-        <f t="shared" ref="F421:F484" si="30">LOG10(B421) - LOG10(B420)</f>
+        <f t="shared" ref="F421:F484" si="30">LOG10(B421) -LOG10(B420)</f>
         <v>-3.8691655057321306E-5</v>
       </c>
       <c r="G421">
@@ -17470,7 +17474,7 @@
         <v>-1.5951662833800566</v>
       </c>
       <c r="F485">
-        <f t="shared" ref="F485:F548" si="34">LOG10(B485) - LOG10(B484)</f>
+        <f t="shared" ref="F485:F548" si="34">LOG10(B485) -LOG10(B484)</f>
         <v>1.6307088077368581E-3</v>
       </c>
       <c r="G485">
@@ -19006,7 +19010,7 @@
         <v>-2.2596373105057865</v>
       </c>
       <c r="F549">
-        <f t="shared" ref="F549:F612" si="38">LOG10(B549) - LOG10(B548)</f>
+        <f t="shared" ref="F549:F612" si="38">LOG10(B549) -LOG10(B548)</f>
         <v>3.5519830233343708E-4</v>
       </c>
       <c r="G549">
@@ -20542,7 +20546,7 @@
         <v>-2.013228265733773</v>
       </c>
       <c r="F613">
-        <f t="shared" ref="F613:F676" si="42">LOG10(B613) - LOG10(B612)</f>
+        <f t="shared" ref="F613:F676" si="42">LOG10(B613) -LOG10(B612)</f>
         <v>6.2190916321702705E-4</v>
       </c>
       <c r="G613">
@@ -22078,7 +22082,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F677">
-        <f t="shared" ref="F677:F740" si="46">LOG10(B677) - LOG10(B676)</f>
+        <f t="shared" ref="F677:F740" si="46">LOG10(B677) -LOG10(B676)</f>
         <v>-2.856887386675222E-4</v>
       </c>
       <c r="G677">
@@ -23614,7 +23618,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F741">
-        <f t="shared" ref="F741:F804" si="50">LOG10(B741) - LOG10(B740)</f>
+        <f t="shared" ref="F741:F804" si="50">LOG10(B741) -LOG10(B740)</f>
         <v>-4.4078028625260668E-4</v>
       </c>
       <c r="G741">
@@ -25150,7 +25154,7 @@
         <v>-2.5528419686576909</v>
       </c>
       <c r="F805">
-        <f t="shared" ref="F805:F868" si="54">LOG10(B805) - LOG10(B804)</f>
+        <f t="shared" ref="F805:F868" si="54">LOG10(B805) -LOG10(B804)</f>
         <v>1.7563979632895244E-4</v>
       </c>
       <c r="G805">
@@ -26686,7 +26690,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F869">
-        <f t="shared" ref="F869:F932" si="58">LOG10(B869) - LOG10(B868)</f>
+        <f t="shared" ref="F869:F932" si="58">LOG10(B869) -LOG10(B868)</f>
         <v>-1.1150700339906949E-3</v>
       </c>
       <c r="G869">
@@ -28222,7 +28226,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F933">
-        <f t="shared" ref="F933:F996" si="62">LOG10(B933) - LOG10(B932)</f>
+        <f t="shared" ref="F933:F996" si="62">LOG10(B933) -LOG10(B932)</f>
         <v>-5.8160679180319086E-4</v>
       </c>
       <c r="G933">
@@ -29758,7 +29762,7 @@
         <v>-1.8507808873446201</v>
       </c>
       <c r="F997">
-        <f t="shared" ref="F997:F1060" si="66">LOG10(B997) - LOG10(B996)</f>
+        <f t="shared" ref="F997:F1060" si="66">LOG10(B997) -LOG10(B996)</f>
         <v>8.8083980667363893E-4</v>
       </c>
       <c r="G997">
@@ -31294,7 +31298,7 @@
         <v>-1.4698003017969288</v>
       </c>
       <c r="F1061">
-        <f t="shared" ref="F1061:F1124" si="70">LOG10(B1061) - LOG10(B1060)</f>
+        <f t="shared" ref="F1061:F1124" si="70">LOG10(B1061) -LOG10(B1060)</f>
         <v>2.1145127244008854E-3</v>
       </c>
       <c r="G1061">
@@ -32830,7 +32834,7 @@
         <v>-2.7447274948966345</v>
       </c>
       <c r="F1125">
-        <f t="shared" ref="F1125:F1188" si="74">LOG10(B1125) - LOG10(B1124)</f>
+        <f t="shared" ref="F1125:F1188" si="74">LOG10(B1125) -LOG10(B1124)</f>
         <v>1.1224174361812445E-4</v>
       </c>
       <c r="G1125">
@@ -34366,7 +34370,7 @@
         <v>-1.764471553092454</v>
       </c>
       <c r="F1189">
-        <f t="shared" ref="F1189:F1252" si="78">LOG10(B1189) - LOG10(B1188)</f>
+        <f t="shared" ref="F1189:F1252" si="78">LOG10(B1189) -LOG10(B1188)</f>
         <v>1.0715634598167378E-3</v>
       </c>
       <c r="G1189">
@@ -35902,7 +35906,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F1253">
-        <f t="shared" ref="F1253:F1316" si="82">LOG10(B1253) - LOG10(B1252)</f>
+        <f t="shared" ref="F1253:F1316" si="82">LOG10(B1253) -LOG10(B1252)</f>
         <v>-4.537530691209879E-4</v>
       </c>
       <c r="G1253">
@@ -37438,7 +37442,7 @@
         <v>-1.7670038896078433</v>
       </c>
       <c r="F1317">
-        <f t="shared" ref="F1317:F1380" si="86">LOG10(B1317) - LOG10(B1316)</f>
+        <f t="shared" ref="F1317:F1380" si="86">LOG10(B1317) -LOG10(B1316)</f>
         <v>1.0624148758039409E-3</v>
       </c>
       <c r="G1317">
@@ -38974,7 +38978,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F1381">
-        <f t="shared" ref="F1381:F1444" si="90">LOG10(B1381) - LOG10(B1380)</f>
+        <f t="shared" ref="F1381:F1444" si="90">LOG10(B1381) -LOG10(B1380)</f>
         <v>-1.5982388300278538E-3</v>
       </c>
       <c r="G1381">
@@ -40510,7 +40514,7 @@
         <v>-2.0087739243074938</v>
       </c>
       <c r="F1445">
-        <f t="shared" ref="F1445:F1508" si="94">LOG10(B1445) - LOG10(B1444)</f>
+        <f t="shared" ref="F1445:F1508" si="94">LOG10(B1445) -LOG10(B1444)</f>
         <v>6.0798631740832665E-4</v>
       </c>
       <c r="G1445">
@@ -42046,7 +42050,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F1509">
-        <f t="shared" ref="F1509:F1572" si="98">LOG10(B1509) - LOG10(B1508)</f>
+        <f t="shared" ref="F1509:F1572" si="98">LOG10(B1509) -LOG10(B1508)</f>
         <v>-1.1462642336046436E-3</v>
       </c>
       <c r="G1509">
@@ -43582,7 +43586,7 @@
         <v>-2.1191864077192055</v>
       </c>
       <c r="F1573">
-        <f t="shared" ref="F1573:F1636" si="102">LOG10(B1573) - LOG10(B1572)</f>
+        <f t="shared" ref="F1573:F1636" si="102">LOG10(B1573) -LOG10(B1572)</f>
         <v>4.7073297283251048E-4</v>
       </c>
       <c r="G1573">
@@ -45118,7 +45122,7 @@
         <v>-1.8096683018297253</v>
       </c>
       <c r="F1637">
-        <f t="shared" ref="F1637:F1700" si="106">LOG10(B1637) - LOG10(B1636)</f>
+        <f t="shared" ref="F1637:F1700" si="106">LOG10(B1637) -LOG10(B1636)</f>
         <v>9.5909714907338461E-4</v>
       </c>
       <c r="G1637">
@@ -46654,7 +46658,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F1701">
-        <f t="shared" ref="F1701:F1764" si="110">LOG10(B1701) - LOG10(B1700)</f>
+        <f t="shared" ref="F1701:F1764" si="110">LOG10(B1701) -LOG10(B1700)</f>
         <v>-1.1774543679563543E-3</v>
       </c>
       <c r="G1701">
@@ -48190,7 +48194,7 @@
         <v>-2.3372421683184319</v>
       </c>
       <c r="F1765">
-        <f t="shared" ref="F1765:F1828" si="114">LOG10(B1765) - LOG10(B1764)</f>
+        <f t="shared" ref="F1765:F1828" si="114">LOG10(B1765) -LOG10(B1764)</f>
         <v>2.8448318070584122E-4</v>
       </c>
       <c r="G1765">
@@ -49726,7 +49730,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F1829">
-        <f t="shared" ref="F1829:F1892" si="118">LOG10(B1829) - LOG10(B1828)</f>
+        <f t="shared" ref="F1829:F1892" si="118">LOG10(B1829) -LOG10(B1828)</f>
         <v>-4.9457732219837514E-4</v>
       </c>
       <c r="G1829">
@@ -51262,7 +51266,7 @@
         <v>-2.408935392973524</v>
       </c>
       <c r="F1893">
-        <f t="shared" ref="F1893:F1952" si="122">LOG10(B1893) - LOG10(B1892)</f>
+        <f t="shared" ref="F1893:F1952" si="122">LOG10(B1893) -LOG10(B1892)</f>
         <v>2.4092979749246179E-4</v>
       </c>
       <c r="G1893">
@@ -52696,8 +52700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="G23:H23"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="A1:A100 E1:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55301,4 +55305,1416 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="8.88671875" style="4"/>
+    <col min="5" max="6" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1.1397326852976915</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.62824207492795392</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.0284697508896796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7491891891891891</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.5697297297297297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.5407629020194469</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.3601598173515979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5581395348837208</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.5344095157179272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.6815313420277658</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.3451977401129938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.5209540034071547</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.6884332516157792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.5591549295774649</v>
+      </c>
+      <c r="E8" s="4">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.7460032333393209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.656874265569918</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.0380434782608705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.3881301981722971</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.2222222222222212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.5709441370694275</v>
+      </c>
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.015654749312461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.3308234540211463</v>
+      </c>
+      <c r="E12" s="4">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.0492026448852583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.6805526185944888</v>
+      </c>
+      <c r="E13" s="4">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.6785622593068048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.1931486407578002</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.3641667963279911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.3427637444279366</v>
+      </c>
+      <c r="E15" s="4">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.7356082674434721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.305037313432835</v>
+      </c>
+      <c r="E16" s="4">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.5621968885809654</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.1076780472732886</v>
+      </c>
+      <c r="E17" s="4">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.83464472340681284</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.1732135092042337</v>
+      </c>
+      <c r="E18" s="4">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.1180893159977374</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.0787585135073354</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.7214300475304822</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.96524355675722773</v>
+      </c>
+      <c r="E20" s="4">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.1438131991597864</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.90785182707584255</v>
+      </c>
+      <c r="E21" s="4">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.89191976002999651</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.78484028591043309</v>
+      </c>
+      <c r="E22" s="4">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.2121387026595039</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.1013331278415655</v>
+      </c>
+      <c r="E23" s="4">
+        <v>24</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.74645100232298278</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.0209172548874683</v>
+      </c>
+      <c r="E24" s="4">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.78945175804032297</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.80269331327674354</v>
+      </c>
+      <c r="E25" s="4">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.0956105347166794</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.0144427975595462</v>
+      </c>
+      <c r="E26" s="4">
+        <v>27</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.74083129584352525</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.71478956031036978</v>
+      </c>
+      <c r="E27" s="4">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.86766199089917428</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.7810426540284342</v>
+      </c>
+      <c r="E28" s="4">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.0611934350204701</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.87854559299448187</v>
+      </c>
+      <c r="E29" s="4">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.1548108409391769</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.73834670300739991</v>
+      </c>
+      <c r="E30" s="4">
+        <v>31</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.62431731294374826</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.78220933043268259</v>
+      </c>
+      <c r="E31" s="4">
+        <v>32</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.62018410041840599</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.70358103912233327</v>
+      </c>
+      <c r="E32" s="4">
+        <v>33</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.69529458024772528</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.87091569181121609</v>
+      </c>
+      <c r="E33" s="4">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1.2253703528222633</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.81651892500351742</v>
+      </c>
+      <c r="E34" s="4">
+        <v>35</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.2905337676982831</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.68863862206028192</v>
+      </c>
+      <c r="E35" s="4">
+        <v>36</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.7248618784530374</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.89592479866404606</v>
+      </c>
+      <c r="E36" s="4">
+        <v>37</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.97633206825448815</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>38</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.66866003386960216</v>
+      </c>
+      <c r="E37" s="4">
+        <v>38</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.56163697924334144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>39</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.725148021190403</v>
+      </c>
+      <c r="E38" s="4">
+        <v>39</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.67920270778488179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.74317608379845745</v>
+      </c>
+      <c r="E39" s="4">
+        <v>40</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.69922119265533633</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>41</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.69441034249492306</v>
+      </c>
+      <c r="E40" s="4">
+        <v>41</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.98385441229505444</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.41777050156273049</v>
+      </c>
+      <c r="E41" s="4">
+        <v>42</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.39244785225492912</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>43</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.0062500000000048</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.41198726149323744</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>44</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.5119954029593401</v>
+      </c>
+      <c r="E43" s="4">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1.3152016054500801</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>45</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.83433204088826196</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.12796545459332434</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>46</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.5605849582172725</v>
+      </c>
+      <c r="E45" s="4">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.30918506119887085</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>47</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.37984389030876464</v>
+      </c>
+      <c r="E46" s="4">
+        <v>47</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.89589266015033786</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>48</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.70349615445697777</v>
+      </c>
+      <c r="E47" s="4">
+        <v>48</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.61511966569583632</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>49</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.50827364781427298</v>
+      </c>
+      <c r="E48" s="4">
+        <v>49</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.57882223390144028</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>50</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.76278493886665577</v>
+      </c>
+      <c r="E49" s="4">
+        <v>50</v>
+      </c>
+      <c r="F49" s="4">
+        <v>9.9907585483433453E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>51</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.3694110933075832</v>
+      </c>
+      <c r="E50" s="4">
+        <v>51</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.89357316384873597</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>52</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.57342566262183048</v>
+      </c>
+      <c r="E51" s="4">
+        <v>52</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.58541793036516099</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>53</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.60395295935447535</v>
+      </c>
+      <c r="E52" s="4">
+        <v>53</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.8689561357453075</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.50398622361120793</v>
+      </c>
+      <c r="E53" s="4">
+        <v>54</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.54473292541756191</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>55</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.44077018790728334</v>
+      </c>
+      <c r="E54" s="4">
+        <v>55</v>
+      </c>
+      <c r="F54" s="4">
+        <v>9.9867943215580346E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>56</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.74348142753096025</v>
+      </c>
+      <c r="E55" s="4">
+        <v>56</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.22097994080894348</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>57</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.48453586976705681</v>
+      </c>
+      <c r="E56" s="4">
+        <v>57</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.87274493477657855</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>58</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.3224998974106435</v>
+      </c>
+      <c r="E57" s="4">
+        <v>58</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2.6828252925723854E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>59</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.59201332466687673</v>
+      </c>
+      <c r="E58" s="4">
+        <v>59</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.86189293283802948</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>60</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.3308756691243348</v>
+      </c>
+      <c r="E59" s="4">
+        <v>60</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1.2203616878767576</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>61</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.6883363291392024</v>
+      </c>
+      <c r="E60" s="4">
+        <v>61</v>
+      </c>
+      <c r="F60" s="4">
+        <v>-0.92493370503842276</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>62</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.4999108504863623</v>
+      </c>
+      <c r="E61" s="4">
+        <v>62</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1.0566769148509589</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>63</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.26843942950703609</v>
+      </c>
+      <c r="E62" s="4">
+        <v>63</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.99460597289830377</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>64</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.45129571229897825</v>
+      </c>
+      <c r="E63" s="4">
+        <v>64</v>
+      </c>
+      <c r="F63" s="4">
+        <v>-0.19848234905971629</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>65</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.45011573848937608</v>
+      </c>
+      <c r="E64" s="4">
+        <v>65</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.75039133837724603</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>66</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.47415075027519055</v>
+      </c>
+      <c r="E65" s="4">
+        <v>66</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.33832976445397173</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>67</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.13816296638914499</v>
+      </c>
+      <c r="E66" s="4">
+        <v>67</v>
+      </c>
+      <c r="F66" s="4">
+        <v>8.9728912409544018E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>68</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.75169627201342692</v>
+      </c>
+      <c r="E67" s="4">
+        <v>68</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.27065404475042326</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>69</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.38838245048801362</v>
+      </c>
+      <c r="E68" s="4">
+        <v>69</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.50399384904532396</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="4">
+        <v>70</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.55409318241641992</v>
+      </c>
+      <c r="E69" s="4">
+        <v>70</v>
+      </c>
+      <c r="F69" s="4">
+        <v>-0.1273081284635259</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
+        <v>71</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.12925323273839151</v>
+      </c>
+      <c r="E70" s="4">
+        <v>71</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1.1507777801166137</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="4">
+        <v>72</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.57240737292870247</v>
+      </c>
+      <c r="E71" s="4">
+        <v>72</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.601164756716138</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
+        <v>73</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.24112975059381572</v>
+      </c>
+      <c r="E72" s="4">
+        <v>73</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.12321830457614059</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>74</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.43276450511945175</v>
+      </c>
+      <c r="E73" s="4">
+        <v>74</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.85358820136771929</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>75</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.29081520141135736</v>
+      </c>
+      <c r="E74" s="4">
+        <v>75</v>
+      </c>
+      <c r="F74" s="4">
+        <v>-0.92268234705367458</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>76</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.56696762425900205</v>
+      </c>
+      <c r="E75" s="4">
+        <v>76</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1.5462679249908164</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="4">
+        <v>77</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.34117198423795569</v>
+      </c>
+      <c r="E76" s="4">
+        <v>77</v>
+      </c>
+      <c r="F76" s="4">
+        <v>-6.2921348314739526E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="4">
+        <v>78</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.32301349054215234</v>
+      </c>
+      <c r="E77" s="4">
+        <v>78</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.18916220016712254</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="4">
+        <v>79</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.10985101580135181</v>
+      </c>
+      <c r="E78" s="4">
+        <v>79</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.60391934798875302</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="4">
+        <v>80</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.49390692582423446</v>
+      </c>
+      <c r="E79" s="4">
+        <v>80</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1.1591661019651645</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="4">
+        <v>81</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.38053302847343773</v>
+      </c>
+      <c r="E80" s="4">
+        <v>81</v>
+      </c>
+      <c r="F80" s="4">
+        <v>-0.43171435441212119</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="4">
+        <v>82</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.80783176214648089</v>
+      </c>
+      <c r="E81" s="4">
+        <v>82</v>
+      </c>
+      <c r="F81" s="4">
+        <v>-0.35312110113896822</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="4">
+        <v>83</v>
+      </c>
+      <c r="C82" s="4">
+        <v>-9.7002107201667437E-2</v>
+      </c>
+      <c r="E82" s="4">
+        <v>83</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0.21490074865022399</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="4">
+        <v>84</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.3952767007402177</v>
+      </c>
+      <c r="E83" s="4">
+        <v>84</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0.99789774304866663</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="4">
+        <v>85</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.3520780679584396</v>
+      </c>
+      <c r="E84" s="4">
+        <v>85</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.87756143518881946</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="4">
+        <v>86</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.42505108367243227</v>
+      </c>
+      <c r="E85" s="4">
+        <v>86</v>
+      </c>
+      <c r="F85" s="4">
+        <v>-0.64283171841012177</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>87</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.20766255488187396</v>
+      </c>
+      <c r="E86" s="4">
+        <v>87</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.17683973713812046</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="4">
+        <v>88</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.27968530193299612</v>
+      </c>
+      <c r="E87" s="4">
+        <v>88</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.85642258310370079</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
+        <v>89</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.18355922215674411</v>
+      </c>
+      <c r="E88" s="4">
+        <v>89</v>
+      </c>
+      <c r="F88" s="4">
+        <v>-0.23192523217994596</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
+        <v>90</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.21629752580527384</v>
+      </c>
+      <c r="E89" s="4">
+        <v>90</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0.67208587763992433</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="4">
+        <v>91</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.12726613488035848</v>
+      </c>
+      <c r="E90" s="4">
+        <v>91</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.71634188693806589</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="4">
+        <v>92</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.71711236359275143</v>
+      </c>
+      <c r="E91" s="4">
+        <v>92</v>
+      </c>
+      <c r="F91" s="4">
+        <v>-0.21706505763131412</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="4">
+        <v>93</v>
+      </c>
+      <c r="C92" s="4">
+        <v>-3.1874967867972427E-2</v>
+      </c>
+      <c r="E92" s="4">
+        <v>93</v>
+      </c>
+      <c r="F92" s="4">
+        <v>-0.21452247572156494</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="4">
+        <v>94</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.1303008522435532</v>
+      </c>
+      <c r="E93" s="4">
+        <v>94</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.16188706993304125</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="4">
+        <v>95</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.63144921376966145</v>
+      </c>
+      <c r="E94" s="4">
+        <v>95</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.88689734496310124</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="4">
+        <v>96</v>
+      </c>
+      <c r="C95" s="4">
+        <v>-9.6382261852098874E-2</v>
+      </c>
+      <c r="E95" s="4">
+        <v>96</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.30086567677578341</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="4">
+        <v>97</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.47959632903248206</v>
+      </c>
+      <c r="E96" s="4">
+        <v>97</v>
+      </c>
+      <c r="F96" s="4">
+        <v>-1.1554541411250618</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="4">
+        <v>98</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.20533270251089067</v>
+      </c>
+      <c r="E97" s="4">
+        <v>98</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1.2091140014133277</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="4">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.41810105496946343</v>
+      </c>
+      <c r="E98" s="4">
+        <v>99</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.36358273709849892</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="4">
+        <v>100</v>
+      </c>
+      <c r="C99" s="4">
+        <v>-7.9143232411674549E-2</v>
+      </c>
+      <c r="E99" s="4">
+        <v>100</v>
+      </c>
+      <c r="F99" s="4">
+        <v>-0.34561112065838823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/vypocet Cd.xlsx
+++ b/vypocet Cd.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="7704" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="7704" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
     <sheet name="B1" sheetId="2" r:id="rId2"/>
     <sheet name="B6" sheetId="3" r:id="rId3"/>
     <sheet name="List2" sheetId="4" r:id="rId4"/>
+    <sheet name="b1_pred" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>b6</t>
   </si>
@@ -136,7 +137,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -900,11 +900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113438640"/>
-        <c:axId val="113437856"/>
+        <c:axId val="161295280"/>
+        <c:axId val="161296064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113438640"/>
+        <c:axId val="161295280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,12 +961,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113437856"/>
+        <c:crossAx val="161296064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113437856"/>
+        <c:axId val="161296064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113438640"/>
+        <c:crossAx val="161295280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1796,11 +1796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113436288"/>
-        <c:axId val="113439032"/>
+        <c:axId val="205030904"/>
+        <c:axId val="161874880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113436288"/>
+        <c:axId val="205030904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,12 +1857,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113439032"/>
+        <c:crossAx val="161874880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113439032"/>
+        <c:axId val="161874880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1920,7 +1920,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113436288"/>
+        <c:crossAx val="205030904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2807,11 +2807,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113437464"/>
-        <c:axId val="164126824"/>
+        <c:axId val="210437096"/>
+        <c:axId val="210435136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113437464"/>
+        <c:axId val="210437096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2869,12 +2869,12 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164126824"/>
+        <c:crossAx val="210435136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164126824"/>
+        <c:axId val="210435136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2932,7 +2932,580 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113437464"/>
+        <c:crossAx val="210437096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>b1_pred!$A$1:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>b1_pred!$E$1:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="1">
+                  <c:v>0.49832265934736208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9644076564924986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97661687651521056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84540905841835079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79808450704225353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8787072617991919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82122015915119428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86493506493506467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0468319559228656</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65613645538958343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1087633587786259</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82527881040892181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51146131805157613</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88619572261827606</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1395276045554132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51788132032307954</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57319140280696734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0854713603818633</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69283304533859991</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52439978338046556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8619387165157083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95707663040466839</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25263619583691166</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94853807338643314</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87636975246767579</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3584731698321969</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65191977077363839</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82215186852697553</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50628753753753697</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.62660332541567654</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8371537726838586</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53726676160136233</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.573651242675289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71115478698584589</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41560329284825454</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35442477263603966</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0221988738920769</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68995038041680534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24983563445102072</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58928964864759781</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.6278820375335108</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56717940965267144</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56687351547634923</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46576168557856257</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.54653354574308777</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.87228176545007496</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.37571494546874828</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33825293412046936</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51041193793578032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506659600"/>
+        <c:axId val="506659208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506659600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506659208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506659208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506659600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3062,6 +3635,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4649,6 +5262,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4728,6 +5857,41 @@
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5477,7 +6641,7 @@
   <dimension ref="A1:J1952"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="A1:A100 G1:G100"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52700,8 +53864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A100 E1:E100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55311,7 +56475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F99"/>
     </sheetView>
   </sheetViews>
@@ -56717,4 +57881,2215 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0.4924</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="D2">
+        <f>B2-B1</f>
+        <v>0.16340000000000005</v>
+      </c>
+      <c r="E2">
+        <f>(A2/B2)*D2</f>
+        <v>0.49832265934736208</v>
+      </c>
+      <c r="G2">
+        <f>0.0118*(A2/B2)</f>
+        <v>3.5986581274778891E-2</v>
+      </c>
+      <c r="H2">
+        <f>G2/(2*PI()*0.149*0.149*0.0155)</f>
+        <v>16.643953250752443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3-B2</f>
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">(A3/B3)*D3</f>
+        <v>0.9644076564924986</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="2">0.0118*(A3/B3)</f>
+        <v>3.6627004655975168E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">G3/(2*PI()*0.149*0.149*0.0155)</f>
+        <v>16.940151901464233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1.2786999999999999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.31219999999999992</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.97661687651521056</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>3.6912489246891375E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>17.072189789385241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1.5388999999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.84540905841835079</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>3.8339073364091238E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>17.731991262985662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.23609999999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.79808450704225353</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>3.9887323943661977E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>18.448064014383306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2.0297999999999998</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.25479999999999992</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.8787072617991919</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4.0693664400433545E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>18.821000047518027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2.262</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.23220000000000018</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.82122015915119428</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4.1732979664014146E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>19.301687960819546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2.5024999999999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.24049999999999994</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.86493506493506467</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4.2437562437562436E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>19.627560614703512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2.7951000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.29260000000000019</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.0468319559228656</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4.2216736431612466E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>19.52542760875005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2.9723999999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.17729999999999979</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.65613645538958343</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>4.366841609473826E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>20.196835883507937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.1087633587786259</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>4.3236641221374043E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>19.997138091926935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.22199999999999998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.82527881040892181</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>4.3866171003717473E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>20.288298404913483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>3.6295999999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.13260000000000005</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.51146131805157613</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>4.5514657262508265E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>21.050730601968308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3.8574999999999999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.22789999999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.88619572261827606</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>4.588464031108231E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>21.221849400862194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4.1532999999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.29579999999999984</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.1395276045554132</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>4.5457828714516167E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>21.024447146786322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>4.2838000000000003</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.1305000000000005</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.51788132032307954</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4.6827582987067552E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>21.657964565495437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>4.4246999999999996</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.14089999999999936</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.57319140280696734</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4.8003254457929349E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>22.201717828686935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>4.6928000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.26810000000000045</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.0854713603818633</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>4.7775315376747354E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>22.096294993929593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>4.8612000000000002</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.16840000000000011</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.69283304533859991</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4.8547683699498065E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>22.45351876459198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>4.9856999999999996</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.12449999999999939</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.52439978338046556</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>4.9702148143690957E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>22.987463684007515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.20330000000000048</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.8619387165157083</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>5.0028907303912122E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>23.138591243067641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>5.4142999999999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.22529999999999983</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.95707663040466839</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>5.0126516816578315E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>23.183736075060434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>5.4718999999999998</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5.7599999999999874E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.25263619583691166</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>5.1755331786034101E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>23.937070213659137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>5.6877000000000004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.21580000000000066</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.94853807338643314</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>5.1866307997960506E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>23.988397203270768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>5.8860999999999999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.19839999999999947</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.87636975246767579</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>5.212279777781554E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>24.107024862636536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>5.9653</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>7.9200000000000159E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0.3584731698321969</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>5.3408881363887814E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>24.701844218209747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>6.1074999999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.14219999999999988</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0.65191977077363839</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>5.4097421203438391E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>25.020296944053758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>6.2857000000000003</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.17820000000000036</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.82215186852697553</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>5.4441032820529138E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>25.179218839068056</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>6.3936000000000002</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.10789999999999988</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0.50628753753753697</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>5.5367867867867869E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>25.607884154099693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>6.5255000000000001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.13189999999999991</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.62660332541567654</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>5.6057007125890734E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>25.926614113642408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>6.7008000000000001</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.8371537726838586</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>5.6351480420248325E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>26.062809316722667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>6.8117000000000001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.1109</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.53726676160136233</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>5.7166346139730165E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>26.439688321625582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>6.9286000000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.11690000000000023</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.573651242675289</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>5.7904915856017085E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>26.781280087079452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>7.0723000000000003</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.14369999999999994</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.71115478698584589</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>5.8396844025281724E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>27.008799044477808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>7.1548999999999996</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>8.2599999999999341E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0.41560329284825454</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>5.9371898978322554E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>27.459766279498272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>7.2241</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>6.9200000000000372E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0.35442477263603966</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>6.0436594177821462E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>27.952192525588501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>7.4238</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1.0221988738920769</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>6.0400334060723621E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>27.935422060807891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>7.5575000000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.13370000000000015</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.68995038041680534</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>6.0893152497519018E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>28.163352770882877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>7.6050000000000004</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>4.750000000000032E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0.24983563445102072</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>6.206443129520052E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>28.705074403270093</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>7.7159000000000004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.1109</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0.58928964864759781</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>6.2701693904793993E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>28.99981118311419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>7.8330000000000002</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.11709999999999976</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.6278820375335108</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>6.3270777479892765E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>29.263014857489154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>7.9377000000000004</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.10470000000000024</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0.56717940965267144</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>6.3922798795620892E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>29.564577604297746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>8.0412999999999997</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.10359999999999925</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0.56687351547634923</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>6.4566674542673452E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>29.862372989511147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>8.1254000000000008</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>8.4100000000001174E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0.46576168557856257</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>6.5350628892116069E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>30.224955348841615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>8.2231000000000005</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>9.7699999999999676E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0.54653354574308777</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>6.6009169291386463E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>30.529533200666346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>8.3786000000000005</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.15549999999999997</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0.87228176545007496</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>6.6192442651516956E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>30.614297941579874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>8.4446999999999992</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>6.6099999999998715E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0.37571494546874828</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>6.7071654410458634E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>31.020937274769132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>8.5033999999999992</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>5.8699999999999974E-2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0.33825293412046936</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>6.7996330879412953E-2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>31.448604237736042</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>8.5911000000000008</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>8.7700000000001666E-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0.51041193793578032</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>6.8675722550080892E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>31.762825894947831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>8.6577999999999999</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>6.6699999999999093E-2</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0.39290581903023331</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>6.9509575180761854E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>32.148486430387401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>8.7812000000000001</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.12340000000000018</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0.73074295084954322</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>6.9876554457249579E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>32.318215971385435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>8.8734999999999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>9.2299999999999827E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0.55129317631148822</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>7.0479517664957456E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>32.597089125920043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>8.9234000000000009</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>4.9900000000000944E-2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0.30197010108255268</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>7.1407759374229551E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>33.026405028327012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>9.0028000000000006</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>7.9399999999999693E-2</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0.48507131114764107</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>7.2088683520682456E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>33.341335462377813</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>9.0264000000000006</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>2.3600000000000065E-2</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0.14641496056013512</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>7.320748028006735E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>33.85878391957111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>9.14</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.11359999999999992</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0.70844638949671723</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>7.3588621444201308E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>34.035063396338991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>9.2378999999999998</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>9.789999999999921E-2</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0.61466350577511708</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>7.4086101819677633E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>34.265150273705082</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>9.2597000000000005</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>2.1800000000000708E-2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0.13890298821776534</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>7.5186021145393467E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>34.773867834204331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>9.3224</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>6.2699999999999534E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0.40354415172058394</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>7.5946108298292278E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>35.125411509407833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>9.4024000000000001</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0.51901642133923298</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>7.65549221475368E-2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>35.406990611569952</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>9.4647000000000006</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>6.2300000000000466E-2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0.4081059093262363</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>7.7297748475915765E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>35.75055107897208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>9.5408000000000008</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>7.6100000000000279E-2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0.50250503102465383</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>7.7917994298172047E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>36.037417519292795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>9.6120000000000001</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>7.1199999999999264E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0.47407407407406915</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>7.8568456096545988E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>36.338258982416825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>9.6056000000000008</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>-6.3999999999992951E-3</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>-4.3308070292324703E-2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>7.9849254601482469E-2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>36.930633964553202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>9.6776999999999997</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>7.2099999999998943E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0.49170774047551902</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>8.0473666263678356E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>37.219427124299571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>9.7680000000000007</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D120" si="4">B67-B66</f>
+        <v>9.0300000000000935E-2</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E120" si="5">(A67/B67)*D67</f>
+        <v>0.61937960687961324</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G86" si="6">0.0118*(A67/B67)</f>
+        <v>8.0937755937755929E-2</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H86" si="7">G67/(2*PI()*0.149*0.149*0.0155)</f>
+        <v>37.434070654356638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>9.8021999999999991</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>3.4199999999998454E-2</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>0.23725286160248668</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>8.1859174471037119E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>37.860230807642921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>9.8697999999999997</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>6.7600000000000549E-2</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>0.4725931629820298</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>8.2494072828223464E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>38.153874110275702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>9.9204000000000008</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>5.0600000000001089E-2</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>0.35704205475586426</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>8.3262771662432955E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>38.509400726232897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>9.9390000000000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>1.8599999999999284E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>0.13287051011167614</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>8.4294194586980578E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>38.986438397770662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>10.022</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>8.3000000000000185E-2</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>0.5962881660347249</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>8.4773498303731779E-2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>39.208118489958515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>10.085699999999999</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>6.369999999999898E-2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>0.46105872671207015</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>8.5408052985910754E-2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>39.501602841378002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>10.089600000000001</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>3.9000000000015689E-3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>2.8603710751676586E-2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>8.6544560735807158E-2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>40.027242710137941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>10.144500000000001</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>5.4899999999999949E-2</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>0.40588496229483917</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>8.7239390802898123E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>40.348604694083448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>10.1762</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>3.1699999999998951E-2</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>0.23674849157838096</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>8.8127198757886049E-2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>40.759219806022998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>10.24</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>6.3800000000000523E-2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>0.47974609375000393</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>8.8730468749999999E-2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>41.038234849704388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>10.286799999999999</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>4.6799999999999287E-2</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>0.3548625422871976</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>8.947388886728623E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>41.382069947106459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>10.310700000000001</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>2.3900000000001143E-2</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>0.18312044769027228</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="6"/>
+        <v>9.041093233243136E-2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>41.815456700594183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>10.3711</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>6.0399999999999565E-2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>0.46591007704100484</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="6"/>
+        <v>9.1022167368938686E-2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>42.098155612590581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>10.411300000000001</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>4.0200000000000458E-2</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>0.31275633206228204</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>9.180409747101706E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>42.459801748548195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>10.4178</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>6.4999999999990621E-3</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>5.1162433527224854E-2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="6"/>
+        <v>9.2879494710975438E-2</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>42.957177735758179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>10.472</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>5.4199999999999804E-2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>0.42958365164247364</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="6"/>
+        <v>9.3525592055003812E-2</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>43.256000619413989</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>10.538500000000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>6.6500000000001336E-2</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>0.5300564596479681</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>9.4055131185652591E-2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>43.500914813059254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>10.5458</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>7.299999999998974E-3</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>5.8838589770326834E-2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>9.5108953327390985E-2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>43.988312221770443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>10.587</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>4.1199999999999903E-2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>0.33467460092566281</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>9.5853405119486174E-2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>44.332624473341696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>10.6218</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>3.4800000000000608E-2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>0.28503643450263166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>10.6594</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>3.7599999999999412E-2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>0.31041146781244239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>10.7174</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>5.7999999999999829E-2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>0.48164666803515638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>10.702199999999999</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>-1.5200000000000102E-2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>-0.12782418568144954</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>10.738799999999999</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>3.6599999999999966E-2</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>0.31014638507095738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>10.782299999999999</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999872E-2</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>0.37116385186833872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>10.819000000000001</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>3.6700000000001509E-2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>0.31547277936964041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>10.848699999999999</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>2.9699999999998283E-2</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>0.25733958907517385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>10.8492</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>5.0000000000061107E-4</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>4.3782030011482922E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>